--- a/LR7/Сравнение методов.xlsx
+++ b/LR7/Сравнение методов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кристина\PycharmProjects\ACIOM\LR7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90AA3AAE-6B26-4E19-9BC9-9F0C6116FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A62A9E8-0CB8-42AE-8E9B-83E313161F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,12 +187,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,25 +213,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -506,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -520,355 +531,300 @@
     <col min="12" max="12" width="50.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>0.5</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8">
         <v>415</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>0.35</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>0.71</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8">
         <v>8760</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C5" s="5">
         <v>0.11</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="7">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5">
         <v>24869</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B6" s="2">
         <v>0.25</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C6" s="7">
         <v>0.64</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="7">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
         <v>348476</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C8" s="7">
         <v>0.11</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="7">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
         <v>20219</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B9" s="2">
         <v>0.24</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C9" s="7">
         <v>0.63</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
         <v>718097</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B13" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C13" s="5">
         <v>0.12</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="7">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13">
         <v>26179</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14">
+        <v>424259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16">
+        <v>387</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="7">
-        <v>424259</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="7">
-        <v>387</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="B17" s="2">
         <v>0.35</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C17" s="7">
         <v>0.71</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="7">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8">
         <v>8610</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>14</v>
-      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F6:H6"/>
+  <mergeCells count="13">
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
